--- a/public/admin/uploads/Libro1.xlsx
+++ b/public/admin/uploads/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B07278-C70E-4C60-8AF9-20B003F769BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F2767-1F02-473F-B702-641827093E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{436DD10E-12CF-487A-9404-4251227A51F9}"/>
   </bookViews>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>lmslklssklk</t>
+    <t>adso</t>
   </si>
   <si>
-    <t>jlkksllk</t>
+    <t>alturas</t>
   </si>
   <si>
-    <t>jsjsskllks</t>
+    <t>mecanizado</t>
   </si>
 </sst>
 </file>
@@ -388,14 +388,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/public/admin/uploads/Libro1.xlsx
+++ b/public/admin/uploads/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F2767-1F02-473F-B702-641827093E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DA08F-73CE-4982-9E27-47378A68CE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{436DD10E-12CF-487A-9404-4251227A51F9}"/>
   </bookViews>
@@ -385,34 +385,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D25983-4E51-41F8-8499-CF3861166DFE}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>

--- a/public/admin/uploads/Libro1.xlsx
+++ b/public/admin/uploads/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DA08F-73CE-4982-9E27-47378A68CE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15613970-6333-4012-97BC-77E0244E01D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{436DD10E-12CF-487A-9404-4251227A51F9}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="18645" windowHeight="7875" xr2:uid="{436DD10E-12CF-487A-9404-4251227A51F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>adso</t>
+    <t>hsqu</t>
   </si>
   <si>
-    <t>alturas</t>
+    <t>multimedia</t>
   </si>
   <si>
-    <t>mecanizado</t>
+    <t>mecanica</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
